--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AC31007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AC31007\team5agile\Sprint_2\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>User Story #1</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Date Added</t>
   </si>
   <si>
-    <t>As a application user, I want to be ale to set a constraint based on my set location</t>
-  </si>
-  <si>
-    <t>As an application user, I want to be ale to set a constraint based on my set price range.</t>
-  </si>
-  <si>
     <t>As an application user, I want to be able to order my results based on price.</t>
   </si>
   <si>
@@ -121,6 +115,15 @@
   </si>
   <si>
     <t>As a user, I want to be able to load new/edited data to delete from existing data set</t>
+  </si>
+  <si>
+    <t>As a application user, I want to be able to set a constraint based on my set location</t>
+  </si>
+  <si>
+    <t>As an application user, I want to be able to set a constraint based on my set price range.</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
 </sst>
 </file>
@@ -337,14 +340,6 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -360,6 +355,14 @@
     <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1285,7 +1288,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1308,30 +1311,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1394,17 +1397,19 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20">
         <v>2</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="21">
         <v>43864</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1434,7 +1439,9 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1466,7 +1473,9 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1498,7 +1507,9 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1526,17 +1537,19 @@
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="21">
         <v>43864</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1566,7 +1579,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1598,7 +1613,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1626,17 +1643,19 @@
       <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>43864</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1666,7 +1685,9 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1698,7 +1719,9 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1730,7 +1753,9 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1762,7 +1787,9 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1790,17 +1817,19 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="20">
         <v>1</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="21">
         <v>43864</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1830,7 +1859,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1862,7 +1893,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1894,7 +1927,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1926,7 +1961,9 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1954,17 +1991,19 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17">
         <v>2</v>
       </c>
       <c r="D20" s="16">
         <v>43864</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1978,7 +2017,9 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2010,7 +2051,9 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2038,17 +2081,19 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="2:29" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="17">
         <v>4</v>
       </c>
       <c r="D23" s="16">
         <v>43864</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -2062,7 +2107,9 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2094,7 +2141,9 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2126,7 +2175,9 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2158,7 +2209,9 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2186,17 +2239,19 @@
       <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="B28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="17">
         <v>5</v>
       </c>
       <c r="D28" s="16">
         <v>43864</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -2226,7 +2281,9 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -2258,7 +2315,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2286,17 +2345,19 @@
       <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="17">
         <v>5</v>
       </c>
       <c r="D31" s="16">
         <v>43864</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -2326,7 +2387,9 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -2354,11 +2417,13 @@
       <c r="AC32" s="4"/>
     </row>
     <row r="33" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -2370,17 +2435,19 @@
       </c>
     </row>
     <row r="34" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B34" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="17">
         <v>5</v>
       </c>
       <c r="D34" s="16">
         <v>43864</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -2410,7 +2477,9 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2442,7 +2511,9 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -2553,30 +2624,30 @@
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -5450,29 +5521,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -1287,8 +1287,8 @@
   <dimension ref="B1:AC133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1442,12 +1442,24 @@
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
       <c r="M4" s="9">
         <v>0</v>
       </c>
@@ -1476,12 +1488,24 @@
       <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
       <c r="M5" s="9">
         <v>0</v>
       </c>
@@ -1510,12 +1534,24 @@
       <c r="F6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
       <c r="M6" s="9">
         <v>0</v>
       </c>
@@ -1582,12 +1618,24 @@
       <c r="F8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
       <c r="M8" s="9">
         <v>0</v>
       </c>
@@ -1616,12 +1664,24 @@
       <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
       <c r="M9" s="9">
         <v>0</v>
       </c>
@@ -1688,12 +1748,24 @@
       <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
       <c r="M11" s="9">
         <v>0</v>
       </c>
@@ -1722,12 +1794,24 @@
       <c r="F12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
@@ -1756,12 +1840,24 @@
       <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
       <c r="M13" s="9">
         <v>0</v>
       </c>
@@ -1790,12 +1886,24 @@
       <c r="F14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
       <c r="M14" s="9">
         <v>0</v>
       </c>
@@ -1862,12 +1970,24 @@
       <c r="F16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
       <c r="M16" s="9">
         <v>0</v>
       </c>
@@ -1896,12 +2016,24 @@
       <c r="F17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
       <c r="M17" s="9">
         <v>0</v>
       </c>
@@ -1930,12 +2062,24 @@
       <c r="F18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
       <c r="M18" s="9">
         <v>0</v>
       </c>
@@ -1964,12 +2108,24 @@
       <c r="F19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
       <c r="M19" s="9">
         <v>0</v>
       </c>
@@ -2020,12 +2176,24 @@
       <c r="F21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
       <c r="M21" s="9">
         <v>0</v>
       </c>
@@ -2054,12 +2222,24 @@
       <c r="F22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
       <c r="M22" s="9">
         <v>0</v>
       </c>
@@ -2110,12 +2290,24 @@
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
       <c r="M24" s="9">
         <v>0</v>
       </c>
@@ -2144,12 +2336,24 @@
       <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
       <c r="M25" s="9">
         <v>0</v>
       </c>
@@ -2178,12 +2382,24 @@
       <c r="F26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
       <c r="M26" s="9">
         <v>0</v>
       </c>
@@ -2212,12 +2428,24 @@
       <c r="F27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
       <c r="M27" s="9">
         <v>0</v>
       </c>
@@ -2284,12 +2512,24 @@
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
       <c r="M29" s="14">
         <v>0</v>
       </c>
@@ -2318,12 +2558,24 @@
       <c r="F30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
       <c r="M30" s="9">
         <v>0</v>
       </c>
@@ -2390,12 +2642,24 @@
       <c r="F32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
       <c r="M32" s="9">
         <v>0</v>
       </c>
@@ -2424,12 +2688,24 @@
       <c r="F33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
       <c r="M33" s="14">
         <v>0</v>
       </c>
@@ -2480,12 +2756,24 @@
       <c r="F35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
       <c r="M35" s="9">
         <v>0</v>
       </c>
@@ -2514,12 +2802,24 @@
       <c r="F36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
       <c r="M36" s="9">
         <v>0</v>
       </c>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AC31007\team5agile\Sprint_2\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1CC0A-A850-4E55-9AB4-B304570D955E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -17,15 +18,25 @@
     <sheet name="-Disclaimer-" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t>User Story #1</t>
   </si>
@@ -108,15 +119,6 @@
     <t>As an application user, I want to be able to order the results based on my price, distance and user feedback constraints</t>
   </si>
   <si>
-    <t>As a user, I want to be able to load new/editited data to update the data set</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to load new/editied data to add to the existing data set</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to load new/edited data to delete from existing data set</t>
-  </si>
-  <si>
     <t>As a application user, I want to be able to set a constraint based on my set location</t>
   </si>
   <si>
@@ -125,12 +127,69 @@
   <si>
     <t>Incomplete</t>
   </si>
+  <si>
+    <t>have ability to set location on front end</t>
+  </si>
+  <si>
+    <t>create front end element to give the user abilitly to set constraint</t>
+  </si>
+  <si>
+    <t>create stored procedure</t>
+  </si>
+  <si>
+    <t>create back end javascript to connect the front end and the database</t>
+  </si>
+  <si>
+    <t>create front end element to give the user abilitly to order results</t>
+  </si>
+  <si>
+    <t>have ability for user to select desired location</t>
+  </si>
+  <si>
+    <t>display on map</t>
+  </si>
+  <si>
+    <t>set weighting of price, distance and user feedback</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to load new/editited data to update the data set</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to load new/editied data to add to the existing data set</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to load new/edited data to delete from existing data set</t>
+  </si>
+  <si>
+    <t>create element to allow upload of data</t>
+  </si>
+  <si>
+    <t>create element to view upload of data</t>
+  </si>
+  <si>
+    <t>create stored procedure to add data</t>
+  </si>
+  <si>
+    <t>create element to allow data to be deleted</t>
+  </si>
+  <si>
+    <t>create stored procedure to delete data</t>
+  </si>
+  <si>
+    <t>Sophie,  Dominika</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>John, Ross, Dumitru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +268,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -331,9 +396,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -363,12 +425,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -430,7 +495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -476,12 +540,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$G$37:$M$37</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$43:$M$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -839,7 +903,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1279,16 +1343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AC133"/>
+  <dimension ref="B1:AC139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35:L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1311,30 +1375,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1397,18 +1461,18 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="19">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>43864</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="17" t="s">
-        <v>32</v>
+      <c r="F3" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1435,15 +1499,19 @@
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1481,15 +1549,19 @@
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -1527,15 +1599,19 @@
       <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -1572,27 +1648,39 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="20">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21">
-        <v>43864</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+    <row r="7" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1610,35 +1698,27 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
+    <row r="8" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43864</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1657,15 +1737,19 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -1702,27 +1786,39 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20">
+    <row r="10" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
-        <v>43864</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1741,15 +1837,19 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -1786,35 +1886,27 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
+    <row r="12" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>43864</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1833,15 +1925,19 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -1879,15 +1975,19 @@
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1924,27 +2024,39 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="20">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
-        <v>43864</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+    <row r="15" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1962,35 +2074,27 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
+    <row r="16" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>43864</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2009,15 +2113,19 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -2055,15 +2163,19 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -2101,15 +2213,19 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -2146,84 +2262,92 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C21" s="16">
         <v>2</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="15">
         <v>43864</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -2260,84 +2384,92 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="2:29" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="2:29" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C24" s="16">
         <v>4</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="15">
         <v>43864</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -2375,15 +2507,19 @@
       <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F26" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -2421,15 +2557,19 @@
       <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F27" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2467,26 +2607,38 @@
       <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="17">
-        <v>5</v>
-      </c>
-      <c r="D28" s="16">
-        <v>43864</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="9">
+        <v>3</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -2505,34 +2657,26 @@
       <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="14">
-        <v>0</v>
-      </c>
+      <c r="B29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="16">
+        <v>5</v>
+      </c>
+      <c r="D29" s="15">
+        <v>43864</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2551,15 +2695,19 @@
       <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
@@ -2597,26 +2745,38 @@
       <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="17">
-        <v>5</v>
-      </c>
-      <c r="D31" s="16">
-        <v>43864</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2635,15 +2795,19 @@
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
         <v>0</v>
@@ -2680,16 +2844,20 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="14"/>
+    <row r="33" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -2706,23 +2874,39 @@
       <c r="L33" s="9">
         <v>0</v>
       </c>
-      <c r="M33" s="14">
-        <v>0</v>
-      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
     </row>
     <row r="34" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="16">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>43864</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C34" s="17">
-        <v>5</v>
-      </c>
-      <c r="D34" s="16">
-        <v>43864</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2749,15 +2933,19 @@
       <c r="AC34" s="4"/>
     </row>
     <row r="35" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
+      <c r="B35" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F35" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
@@ -2794,16 +2982,20 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+    <row r="36" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F36" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9">
         <v>0</v>
@@ -2823,131 +3015,106 @@
       <c r="M36" s="9">
         <v>0</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="2:29" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <f>SUM(G3:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <f>SUM(H4:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f>SUM(I3:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <f>SUM(J3:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <f>SUM(K3:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <f>SUM(L3:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
-        <f>SUM(M3:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
+    </row>
+    <row r="37" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="9">
+        <v>3</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="16">
+        <v>5</v>
+      </c>
+      <c r="D39" s="15">
+        <v>43864</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -2955,19 +3122,39 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+    <row r="40" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="9">
+        <v>2</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -2985,19 +3172,39 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+    <row r="41" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3015,19 +3222,39 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+    <row r="42" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3045,19 +3272,42 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+    <row r="43" spans="2:29" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <f>SUM(G3:G42)</f>
+        <v>63</v>
+      </c>
+      <c r="H43" s="5">
+        <f>SUM(H4:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f>SUM(I3:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <f>SUM(J3:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <f>SUM(K3:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <f>SUM(L3:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <f>SUM(M3:M42)</f>
+        <v>0</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3075,7 +3325,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3105,29 +3355,31 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
+    <row r="45" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -5775,13 +6027,193 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
     </row>
+    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
+      <c r="AB134" s="4"/>
+      <c r="AC134" s="4"/>
+    </row>
+    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+    </row>
+    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="4"/>
+    </row>
+    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
+      <c r="AC137" s="4"/>
+    </row>
+    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+      <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
+      <c r="AB138" s="4"/>
+      <c r="AC138" s="4"/>
+    </row>
+    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+      <c r="AB139" s="4"/>
+      <c r="AC139" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B39:W39"/>
+    <mergeCell ref="B45:W45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B39:W39" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET"/>
+    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
@@ -5790,7 +6222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5821,29 +6253,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -9495,7 +9927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1CC0A-A850-4E55-9AB4-B304570D955E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94AEAE-9145-47B5-9FBF-4B8F22489CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
   <si>
     <t>User Story #1</t>
   </si>
@@ -110,9 +110,6 @@
     <t>As an application user, I want to be able to order my results based on price.</t>
   </si>
   <si>
-    <t>As an pplcation user, I want to be able to order the results based on distance from my location</t>
-  </si>
-  <si>
     <t>As an application user, I want to set my location manually</t>
   </si>
   <si>
@@ -183,6 +180,24 @@
   </si>
   <si>
     <t>John, Ross, Dumitru</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Dumitru</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>As an applcation user, I want to be able to order the results based on distance from my location</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Dominika</t>
   </si>
 </sst>
 </file>
@@ -417,6 +432,9 @@
     <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1350,9 +1365,9 @@
   </sheetPr>
   <dimension ref="B1:AC139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1375,30 +1390,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1462,7 +1477,7 @@
     </row>
     <row r="3" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="19">
         <v>2</v>
@@ -1470,9 +1485,11 @@
       <c r="D3" s="20">
         <v>43864</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="F3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1500,15 +1517,15 @@
     </row>
     <row r="4" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
@@ -1550,15 +1567,15 @@
     </row>
     <row r="5" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
@@ -1600,15 +1617,15 @@
     </row>
     <row r="6" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1650,15 +1667,15 @@
     </row>
     <row r="7" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9">
         <v>3</v>
@@ -1700,7 +1717,7 @@
     </row>
     <row r="8" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19">
         <v>2</v>
@@ -1708,9 +1725,11 @@
       <c r="D8" s="20">
         <v>43864</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1738,15 +1757,15 @@
     </row>
     <row r="9" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -1788,15 +1807,15 @@
     </row>
     <row r="10" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1838,15 +1857,15 @@
     </row>
     <row r="11" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="9">
         <v>3</v>
@@ -1896,9 +1915,11 @@
       <c r="D12" s="20">
         <v>43864</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1926,15 +1947,15 @@
     </row>
     <row r="13" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="9">
         <v>2</v>
@@ -1976,15 +1997,15 @@
     </row>
     <row r="14" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -2026,15 +2047,15 @@
     </row>
     <row r="15" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="9">
         <v>3</v>
@@ -2076,7 +2097,7 @@
     </row>
     <row r="16" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C16" s="19">
         <v>1</v>
@@ -2084,9 +2105,11 @@
       <c r="D16" s="20">
         <v>43864</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F16" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -2114,15 +2137,15 @@
     </row>
     <row r="17" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
@@ -2164,15 +2187,15 @@
     </row>
     <row r="18" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="9">
         <v>2</v>
@@ -2214,15 +2237,15 @@
     </row>
     <row r="19" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2264,15 +2287,15 @@
     </row>
     <row r="20" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9">
         <v>3</v>
@@ -2314,7 +2337,7 @@
     </row>
     <row r="21" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
@@ -2322,9 +2345,11 @@
       <c r="D21" s="15">
         <v>43864</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2336,15 +2361,15 @@
     </row>
     <row r="22" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="9">
         <v>3</v>
@@ -2386,15 +2411,15 @@
     </row>
     <row r="23" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9">
         <v>2</v>
@@ -2436,7 +2461,7 @@
     </row>
     <row r="24" spans="2:29" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16">
         <v>4</v>
@@ -2444,9 +2469,11 @@
       <c r="D24" s="15">
         <v>43864</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="F24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2458,15 +2485,15 @@
     </row>
     <row r="25" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="9">
         <v>2</v>
@@ -2508,15 +2535,15 @@
     </row>
     <row r="26" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="9">
         <v>2</v>
@@ -2558,15 +2585,15 @@
     </row>
     <row r="27" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -2608,15 +2635,15 @@
     </row>
     <row r="28" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
@@ -2658,7 +2685,7 @@
     </row>
     <row r="29" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="16">
         <v>5</v>
@@ -2666,9 +2693,11 @@
       <c r="D29" s="15">
         <v>43864</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="F29" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2695,16 +2724,16 @@
       <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>41</v>
+      <c r="B30" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="9">
         <v>2</v>
@@ -2746,15 +2775,15 @@
     </row>
     <row r="31" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="9">
         <v>2</v>
@@ -2796,15 +2825,15 @@
     </row>
     <row r="32" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2846,15 +2875,15 @@
     </row>
     <row r="33" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="9">
         <v>3</v>
@@ -2896,7 +2925,7 @@
     </row>
     <row r="34" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="16">
         <v>5</v>
@@ -2904,9 +2933,11 @@
       <c r="D34" s="15">
         <v>43864</v>
       </c>
-      <c r="E34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2933,16 +2964,16 @@
       <c r="AC34" s="4"/>
     </row>
     <row r="35" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>41</v>
+      <c r="B35" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="9">
         <v>2</v>
@@ -2984,15 +3015,15 @@
     </row>
     <row r="36" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" s="9">
         <v>2</v>
@@ -3018,15 +3049,15 @@
     </row>
     <row r="37" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -3052,15 +3083,15 @@
     </row>
     <row r="38" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="9">
         <v>3</v>
@@ -3086,7 +3117,7 @@
     </row>
     <row r="39" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="16">
         <v>5</v>
@@ -3094,9 +3125,11 @@
       <c r="D39" s="15">
         <v>43864</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F39" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -3123,16 +3156,16 @@
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
-        <v>44</v>
+      <c r="B40" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" s="9">
         <v>2</v>
@@ -3174,15 +3207,15 @@
     </row>
     <row r="41" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
@@ -3224,15 +3257,15 @@
     </row>
     <row r="42" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" s="9">
         <v>3</v>
@@ -3356,30 +3389,30 @@
       <c r="AC44" s="4"/>
     </row>
     <row r="45" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -6253,29 +6286,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94AEAE-9145-47B5-9FBF-4B8F22489CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDB4D6-EFA0-494B-BCAA-1ED06F15FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,22 +563,22 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,9 +1365,9 @@
   </sheetPr>
   <dimension ref="B1:AC139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1531,22 +1531,22 @@
         <v>2</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1631,22 +1631,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1681,22 +1681,22 @@
         <v>3</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1771,22 +1771,22 @@
         <v>2</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1821,22 +1821,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1871,22 +1871,22 @@
         <v>3</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1961,22 +1961,22 @@
         <v>2</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2011,22 +2011,22 @@
         <v>1</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2061,22 +2061,22 @@
         <v>3</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -2151,22 +2151,22 @@
         <v>2</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2201,22 +2201,22 @@
         <v>2</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2251,22 +2251,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2499,22 +2499,22 @@
         <v>2</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2549,22 +2549,22 @@
         <v>2</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2599,22 +2599,22 @@
         <v>1</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2649,22 +2649,22 @@
         <v>3</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2739,22 +2739,22 @@
         <v>2</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2789,22 +2789,22 @@
         <v>2</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2839,22 +2839,22 @@
         <v>1</v>
       </c>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2889,22 +2889,22 @@
         <v>3</v>
       </c>
       <c r="H33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2979,22 +2979,22 @@
         <v>2</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3029,22 +3029,22 @@
         <v>2</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3063,22 +3063,22 @@
         <v>1</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,22 +3097,22 @@
         <v>3</v>
       </c>
       <c r="H38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,22 +3171,22 @@
         <v>2</v>
       </c>
       <c r="H40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -3221,22 +3221,22 @@
         <v>1</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -3271,22 +3271,22 @@
         <v>3</v>
       </c>
       <c r="H42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3319,27 +3319,27 @@
       </c>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I43" s="5">
         <f>SUM(I3:I42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J43" s="5">
         <f>SUM(J3:J42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K43" s="5">
         <f>SUM(K3:K42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L43" s="5">
         <f>SUM(L3:L42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="M43" s="5">
         <f>SUM(M3:M42)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pturt\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDB4D6-EFA0-494B-BCAA-1ED06F15FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F050989-1A1F-41AD-91F2-A9D110748520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>User Story #1</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Dominika</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>AGILE SPRINT BACKLOG WITH BURNDOWN CHART</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58</c:v>
@@ -1365,9 +1371,9 @@
   </sheetPr>
   <dimension ref="B1:AC139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="22" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -2349,7 +2355,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2369,13 +2375,13 @@
         <v>45</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G22" s="9">
         <v>3</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -2419,13 +2425,13 @@
         <v>45</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G23" s="9">
         <v>2</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I43" s="5">
         <f>SUM(I3:I42)</f>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pturt\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AC31007\team5agile\Sprint_2\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F050989-1A1F-41AD-91F2-A9D110748520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
   <si>
     <t>User Story #1</t>
   </si>
@@ -205,11 +204,14 @@
   <si>
     <t>AGILE SPRINT BACKLOG WITH BURNDOWN CHART</t>
   </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -453,8 +455,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -516,6 +518,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1364,16 +1367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AC139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
@@ -1581,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
@@ -1631,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1681,7 +1684,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G7" s="9">
         <v>3</v>
@@ -1771,7 +1774,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -1821,7 +1824,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1871,7 +1874,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9">
         <v>3</v>
@@ -1961,7 +1964,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G13" s="9">
         <v>2</v>
@@ -2011,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -2061,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9">
         <v>3</v>
@@ -2151,7 +2154,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
@@ -2201,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G18" s="9">
         <v>2</v>
@@ -2251,7 +2254,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2301,7 +2304,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G20" s="9">
         <v>3</v>
@@ -6252,7 +6255,7 @@
     <mergeCell ref="B45:W45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
@@ -6261,7 +6264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9966,7 +9969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AC31007\team5agile\Sprint_2\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pturt\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724AE513-35CE-4B8F-B528-7DE2622476B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -386,7 +387,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,12 +452,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -518,7 +520,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -572,22 +573,22 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,16 +1368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AC139"/>
+  <dimension ref="A1:BQ139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1399,7 @@
     <col min="25" max="16384" width="10.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="22" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="2:29" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:69" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1483,8 +1484,40 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
+    </row>
+    <row r="3" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
@@ -1523,8 +1556,40 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+    </row>
+    <row r="4" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
@@ -1573,8 +1638,40 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="26"/>
+    </row>
+    <row r="5" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1623,8 +1720,40 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26"/>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
+      <c r="BQ5" s="26"/>
+    </row>
+    <row r="6" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
@@ -1640,22 +1769,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1673,8 +1802,40 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="26"/>
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="26"/>
+      <c r="BH6" s="26"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="26"/>
+      <c r="BQ6" s="26"/>
+    </row>
+    <row r="7" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1723,8 +1884,40 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="2:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="26"/>
+    </row>
+    <row r="8" spans="2:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
@@ -1747,24 +1940,64 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="26"/>
+      <c r="BD8" s="26"/>
+      <c r="BE8" s="26"/>
+      <c r="BF8" s="26"/>
+      <c r="BG8" s="26"/>
+      <c r="BH8" s="26"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
+      <c r="BK8" s="26"/>
+      <c r="BL8" s="26"/>
+      <c r="BM8" s="26"/>
+      <c r="BN8" s="26"/>
+      <c r="BO8" s="26"/>
+      <c r="BP8" s="26"/>
+      <c r="BQ8" s="26"/>
+    </row>
+    <row r="9" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1797,24 +2030,64 @@
       <c r="M9" s="9">
         <v>2</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9" s="26"/>
+      <c r="BP9" s="26"/>
+      <c r="BQ9" s="26"/>
+    </row>
+    <row r="10" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -1830,41 +2103,81 @@
         <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="26"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="26"/>
+      <c r="BQ10" s="26"/>
+    </row>
+    <row r="11" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
@@ -1897,24 +2210,64 @@
       <c r="M11" s="9">
         <v>3</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="2:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="26"/>
+      <c r="BL11" s="26"/>
+      <c r="BM11" s="26"/>
+      <c r="BN11" s="26"/>
+      <c r="BO11" s="26"/>
+      <c r="BP11" s="26"/>
+      <c r="BQ11" s="26"/>
+    </row>
+    <row r="12" spans="2:69" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
@@ -1937,24 +2290,64 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="26"/>
+      <c r="BN12" s="26"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="26"/>
+      <c r="BQ12" s="26"/>
+    </row>
+    <row r="13" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1987,24 +2380,64 @@
       <c r="M13" s="9">
         <v>2</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="26"/>
+      <c r="BQ13" s="26"/>
+    </row>
+    <row r="14" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
@@ -2023,38 +2456,78 @@
         <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="26"/>
+      <c r="BL14" s="26"/>
+      <c r="BM14" s="26"/>
+      <c r="BN14" s="26"/>
+      <c r="BO14" s="26"/>
+      <c r="BP14" s="26"/>
+      <c r="BQ14" s="26"/>
+    </row>
+    <row r="15" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -2087,24 +2560,64 @@
       <c r="M15" s="9">
         <v>3</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="2:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="26"/>
+      <c r="BO15" s="26"/>
+      <c r="BP15" s="26"/>
+      <c r="BQ15" s="26"/>
+    </row>
+    <row r="16" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>51</v>
       </c>
@@ -2127,24 +2640,64 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="26"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="26"/>
+      <c r="BL16" s="26"/>
+      <c r="BM16" s="26"/>
+      <c r="BN16" s="26"/>
+      <c r="BO16" s="26"/>
+      <c r="BP16" s="26"/>
+      <c r="BQ16" s="26"/>
+    </row>
+    <row r="17" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
@@ -2177,24 +2730,64 @@
       <c r="M17" s="9">
         <v>2</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
+      <c r="BO17" s="26"/>
+      <c r="BP17" s="26"/>
+      <c r="BQ17" s="26"/>
+    </row>
+    <row r="18" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
@@ -2227,24 +2820,65 @@
       <c r="M18" s="9">
         <v>2</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
+      <c r="BN18" s="26"/>
+      <c r="BO18" s="26"/>
+      <c r="BP18" s="26"/>
+      <c r="BQ18" s="26"/>
+    </row>
+    <row r="19" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
@@ -2263,38 +2897,79 @@
         <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="26"/>
+      <c r="BM19" s="26"/>
+      <c r="BN19" s="26"/>
+      <c r="BO19" s="26"/>
+      <c r="BP19" s="26"/>
+      <c r="BQ19" s="26"/>
+    </row>
+    <row r="20" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
       <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
@@ -2327,24 +3002,65 @@
       <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
+      <c r="BM20" s="26"/>
+      <c r="BN20" s="26"/>
+      <c r="BO20" s="26"/>
+      <c r="BP20" s="26"/>
+      <c r="BQ20" s="26"/>
+    </row>
+    <row r="21" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
@@ -2367,8 +3083,65 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="26"/>
+      <c r="BN21" s="26"/>
+      <c r="BO21" s="26"/>
+      <c r="BP21" s="26"/>
+      <c r="BQ21" s="26"/>
+    </row>
+    <row r="22" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
@@ -2401,24 +3174,65 @@
       <c r="M22" s="9">
         <v>0</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="26"/>
+      <c r="BP22" s="26"/>
+      <c r="BQ22" s="26"/>
+    </row>
+    <row r="23" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
       <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
@@ -2451,24 +3265,65 @@
       <c r="M23" s="9">
         <v>0</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="2:29" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="26"/>
+      <c r="BQ23" s="26"/>
+    </row>
+    <row r="24" spans="1:69" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
       <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
@@ -2491,8 +3346,64 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
+      <c r="BQ24" s="26"/>
+    </row>
+    <row r="25" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
@@ -2525,24 +3436,64 @@
       <c r="M25" s="9">
         <v>2</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
+      <c r="BQ25" s="26"/>
+    </row>
+    <row r="26" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
@@ -2575,24 +3526,64 @@
       <c r="M26" s="9">
         <v>2</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="26"/>
+      <c r="BP26" s="26"/>
+      <c r="BQ26" s="26"/>
+    </row>
+    <row r="27" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
@@ -2625,24 +3616,64 @@
       <c r="M27" s="9">
         <v>1</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="26"/>
+      <c r="BP27" s="26"/>
+      <c r="BQ27" s="26"/>
+    </row>
+    <row r="28" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
@@ -2675,24 +3706,64 @@
       <c r="M28" s="9">
         <v>3</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28" s="26"/>
+      <c r="BP28" s="26"/>
+      <c r="BQ28" s="26"/>
+    </row>
+    <row r="29" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>37</v>
       </c>
@@ -2715,24 +3786,64 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
+      <c r="BQ29" s="26"/>
+    </row>
+    <row r="30" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
         <v>40</v>
       </c>
@@ -2765,24 +3876,64 @@
       <c r="M30" s="9">
         <v>2</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
+      <c r="BM30" s="26"/>
+      <c r="BN30" s="26"/>
+      <c r="BO30" s="26"/>
+      <c r="BP30" s="26"/>
+      <c r="BQ30" s="26"/>
+    </row>
+    <row r="31" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
@@ -2815,24 +3966,64 @@
       <c r="M31" s="9">
         <v>2</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="26"/>
+      <c r="BG31" s="26"/>
+      <c r="BH31" s="26"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
+      <c r="BM31" s="26"/>
+      <c r="BN31" s="26"/>
+      <c r="BO31" s="26"/>
+      <c r="BP31" s="26"/>
+      <c r="BQ31" s="26"/>
+    </row>
+    <row r="32" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
@@ -2865,24 +4056,64 @@
       <c r="M32" s="9">
         <v>1</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="26"/>
+      <c r="BH32" s="26"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="26"/>
+      <c r="BM32" s="26"/>
+      <c r="BN32" s="26"/>
+      <c r="BO32" s="26"/>
+      <c r="BP32" s="26"/>
+      <c r="BQ32" s="26"/>
+    </row>
+    <row r="33" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
@@ -2915,24 +4146,64 @@
       <c r="M33" s="9">
         <v>3</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
+      <c r="BQ33" s="26"/>
+    </row>
+    <row r="34" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>38</v>
       </c>
@@ -2955,24 +4226,64 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26"/>
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
+      <c r="BQ34" s="26"/>
+    </row>
+    <row r="35" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>40</v>
       </c>
@@ -3005,24 +4316,65 @@
       <c r="M35" s="9">
         <v>2</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
+      <c r="BM35" s="26"/>
+      <c r="BN35" s="26"/>
+      <c r="BO35" s="26"/>
+      <c r="BP35" s="26"/>
+      <c r="BQ35" s="26"/>
+    </row>
+    <row r="36" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
       <c r="B36" s="9" t="s">
         <v>41</v>
       </c>
@@ -3055,8 +4407,65 @@
       <c r="M36" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="26"/>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26"/>
+      <c r="BG36" s="26"/>
+      <c r="BH36" s="26"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="26"/>
+      <c r="BL36" s="26"/>
+      <c r="BM36" s="26"/>
+      <c r="BN36" s="26"/>
+      <c r="BO36" s="26"/>
+      <c r="BP36" s="26"/>
+      <c r="BQ36" s="26"/>
+    </row>
+    <row r="37" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
       <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
@@ -3089,8 +4498,65 @@
       <c r="M37" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="26"/>
+      <c r="BE37" s="26"/>
+      <c r="BF37" s="26"/>
+      <c r="BG37" s="26"/>
+      <c r="BH37" s="26"/>
+      <c r="BI37" s="26"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="26"/>
+      <c r="BL37" s="26"/>
+      <c r="BM37" s="26"/>
+      <c r="BN37" s="26"/>
+      <c r="BO37" s="26"/>
+      <c r="BP37" s="26"/>
+      <c r="BQ37" s="26"/>
+    </row>
+    <row r="38" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
       <c r="B38" s="9" t="s">
         <v>32</v>
       </c>
@@ -3123,8 +4589,64 @@
       <c r="M38" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="26"/>
+      <c r="BG38" s="26"/>
+      <c r="BH38" s="26"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="26"/>
+      <c r="BL38" s="26"/>
+      <c r="BM38" s="26"/>
+      <c r="BN38" s="26"/>
+      <c r="BO38" s="26"/>
+      <c r="BP38" s="26"/>
+      <c r="BQ38" s="26"/>
+    </row>
+    <row r="39" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
@@ -3147,24 +4669,64 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="26"/>
+      <c r="BH39" s="26"/>
+      <c r="BI39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="26"/>
+      <c r="BM39" s="26"/>
+      <c r="BN39" s="26"/>
+      <c r="BO39" s="26"/>
+      <c r="BP39" s="26"/>
+      <c r="BQ39" s="26"/>
+    </row>
+    <row r="40" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
         <v>43</v>
       </c>
@@ -3197,24 +4759,64 @@
       <c r="M40" s="9">
         <v>2</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="26"/>
+      <c r="BL40" s="26"/>
+      <c r="BM40" s="26"/>
+      <c r="BN40" s="26"/>
+      <c r="BO40" s="26"/>
+      <c r="BP40" s="26"/>
+      <c r="BQ40" s="26"/>
+    </row>
+    <row r="41" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>44</v>
       </c>
@@ -3263,8 +4865,40 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="26"/>
+      <c r="BL41" s="26"/>
+      <c r="BM41" s="26"/>
+      <c r="BN41" s="26"/>
+      <c r="BO41" s="26"/>
+      <c r="BP41" s="26"/>
+      <c r="BQ41" s="26"/>
+    </row>
+    <row r="42" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>32</v>
       </c>
@@ -3313,8 +4947,40 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="2:29" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
+      <c r="BI42" s="26"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="26"/>
+      <c r="BL42" s="26"/>
+      <c r="BM42" s="26"/>
+      <c r="BN42" s="26"/>
+      <c r="BO42" s="26"/>
+      <c r="BP42" s="26"/>
+      <c r="BQ42" s="26"/>
+    </row>
+    <row r="43" spans="1:69" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>19</v>
       </c>
@@ -3328,27 +4994,27 @@
       </c>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I43" s="5">
         <f>SUM(I3:I42)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J43" s="5">
         <f>SUM(J3:J42)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K43" s="5">
         <f>SUM(K3:K42)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L43" s="5">
         <f>SUM(L3:L42)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M43" s="5">
         <f>SUM(M3:M42)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3366,8 +5032,40 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-    </row>
-    <row r="44" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="26"/>
+      <c r="AS43" s="26"/>
+      <c r="AT43" s="26"/>
+      <c r="AU43" s="26"/>
+      <c r="AV43" s="26"/>
+      <c r="AW43" s="26"/>
+      <c r="AX43" s="26"/>
+      <c r="AY43" s="26"/>
+      <c r="AZ43" s="26"/>
+      <c r="BA43" s="26"/>
+      <c r="BB43" s="26"/>
+      <c r="BC43" s="26"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="26"/>
+      <c r="BF43" s="26"/>
+      <c r="BG43" s="26"/>
+      <c r="BH43" s="26"/>
+      <c r="BI43" s="26"/>
+      <c r="BJ43" s="26"/>
+      <c r="BK43" s="26"/>
+      <c r="BL43" s="26"/>
+      <c r="BM43" s="26"/>
+      <c r="BN43" s="26"/>
+      <c r="BO43" s="26"/>
+      <c r="BP43" s="26"/>
+      <c r="BQ43" s="26"/>
+    </row>
+    <row r="44" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3397,7 +5095,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="24" t="s">
         <v>20</v>
       </c>
@@ -3429,7 +5127,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3459,7 +5157,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3489,7 +5187,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6255,7 +7953,7 @@
     <mergeCell ref="B45:W45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET"/>
+    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
@@ -6264,7 +7962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9969,7 +11667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>

--- a/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
+++ b/Sprint_2/Sprint_Backlog/SprintBacklog2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pturt\Documents\GitHub\team5agile\Sprint_2\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724AE513-35CE-4B8F-B528-7DE2622476B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003636C-2F03-4D7E-8279-98469CB8FE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="-Disclaimer-" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$W$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Agile Sprint Backlog - BLANK'!$B$2:$V$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>User Story #1</t>
   </si>
@@ -149,30 +149,6 @@
     <t>set weighting of price, distance and user feedback</t>
   </si>
   <si>
-    <t>As an admin, I want to be able to load new/editited data to update the data set</t>
-  </si>
-  <si>
-    <t>As an admin, I want to be able to load new/editied data to add to the existing data set</t>
-  </si>
-  <si>
-    <t>As an admin, I want to be able to load new/edited data to delete from existing data set</t>
-  </si>
-  <si>
-    <t>create element to allow upload of data</t>
-  </si>
-  <si>
-    <t>create element to view upload of data</t>
-  </si>
-  <si>
-    <t>create stored procedure to add data</t>
-  </si>
-  <si>
-    <t>create element to allow data to be deleted</t>
-  </si>
-  <si>
-    <t>create stored procedure to delete data</t>
-  </si>
-  <si>
     <t>Sophie,  Dominika</t>
   </si>
   <si>
@@ -208,12 +184,15 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,12 +271,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -387,7 +360,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,19 +393,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,9 +405,7 @@
     <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -452,7 +414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -565,30 +526,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$G$43:$M$43</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$29:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +889,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1373,11 +1334,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ139"/>
+  <dimension ref="A1:BQ125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U38" sqref="U38"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1400,30 +1361,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="B1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1484,53 +1445,53 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="26"/>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="26"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
     </row>
     <row r="3" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>43864</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="12"/>
@@ -1556,38 +1517,38 @@
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
     </row>
     <row r="4" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1596,10 +1557,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
@@ -1608,19 +1569,19 @@
         <v>2</v>
       </c>
       <c r="I4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1638,38 +1599,38 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26"/>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="26"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
     </row>
     <row r="5" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -1678,31 +1639,31 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
       </c>
       <c r="H5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1720,38 +1681,38 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="26"/>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="26"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="26"/>
-      <c r="BP5" s="26"/>
-      <c r="BQ5" s="26"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
     </row>
     <row r="6" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -1760,16 +1721,16 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -1802,38 +1763,38 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="26"/>
-      <c r="BE6" s="26"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="26"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6" s="26"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="26"/>
-      <c r="BP6" s="26"/>
-      <c r="BQ6" s="26"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
     </row>
     <row r="7" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1842,31 +1803,31 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9">
         <v>3</v>
       </c>
       <c r="H7" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1884,53 +1845,53 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
     </row>
     <row r="8" spans="2:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>43864</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="12"/>
@@ -1940,62 +1901,62 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
-      <c r="BD8" s="26"/>
-      <c r="BE8" s="26"/>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="26"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
-      <c r="BP8" s="26"/>
-      <c r="BQ8" s="26"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
     </row>
     <row r="9" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -2004,10 +1965,10 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -2016,76 +1977,76 @@
         <v>2</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26"/>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="26"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="26"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
-      <c r="BP9" s="26"/>
-      <c r="BQ9" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
     </row>
     <row r="10" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -2094,19 +2055,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -2120,62 +2081,62 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="26"/>
-      <c r="BD10" s="26"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="26"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="26"/>
-      <c r="BL10" s="26"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26"/>
-      <c r="BO10" s="26"/>
-      <c r="BP10" s="26"/>
-      <c r="BQ10" s="26"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
     </row>
     <row r="11" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -2184,103 +2145,103 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9">
         <v>3</v>
       </c>
       <c r="H11" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>3</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="26"/>
-      <c r="BP11" s="26"/>
-      <c r="BQ11" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="18"/>
     </row>
     <row r="12" spans="2:69" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>43864</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="12"/>
@@ -2290,62 +2251,62 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="26"/>
-      <c r="BM12" s="26"/>
-      <c r="BN12" s="26"/>
-      <c r="BO12" s="26"/>
-      <c r="BP12" s="26"/>
-      <c r="BQ12" s="26"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
     </row>
     <row r="13" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -2354,10 +2315,10 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9">
         <v>2</v>
@@ -2366,76 +2327,76 @@
         <v>2</v>
       </c>
       <c r="I13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9">
-        <v>2</v>
-      </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
-      <c r="BL13" s="26"/>
-      <c r="BM13" s="26"/>
-      <c r="BN13" s="26"/>
-      <c r="BO13" s="26"/>
-      <c r="BP13" s="26"/>
-      <c r="BQ13" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
     </row>
     <row r="14" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -2444,10 +2405,10 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -2456,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -2470,62 +2431,62 @@
       <c r="M14" s="9">
         <v>0</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
-      <c r="BL14" s="26"/>
-      <c r="BM14" s="26"/>
-      <c r="BN14" s="26"/>
-      <c r="BO14" s="26"/>
-      <c r="BP14" s="26"/>
-      <c r="BQ14" s="26"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="18"/>
+      <c r="BJ14" s="18"/>
+      <c r="BK14" s="18"/>
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
     </row>
     <row r="15" spans="2:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2534,103 +2495,103 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G15" s="9">
         <v>3</v>
       </c>
       <c r="H15" s="9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="9">
-        <v>3</v>
-      </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="18"/>
+      <c r="BJ15" s="18"/>
+      <c r="BK15" s="18"/>
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
     </row>
     <row r="16" spans="2:69" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>43864</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="12"/>
@@ -2640,62 +2601,62 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
-      <c r="BL16" s="26"/>
-      <c r="BM16" s="26"/>
-      <c r="BN16" s="26"/>
-      <c r="BO16" s="26"/>
-      <c r="BP16" s="26"/>
-      <c r="BQ16" s="26"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="18"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="18"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="18"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="18"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="18"/>
+      <c r="BG16" s="18"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="18"/>
+      <c r="BJ16" s="18"/>
+      <c r="BK16" s="18"/>
+      <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="18"/>
+      <c r="BQ16" s="18"/>
     </row>
     <row r="17" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -2704,10 +2665,10 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G17" s="9">
         <v>2</v>
@@ -2716,76 +2677,76 @@
         <v>2</v>
       </c>
       <c r="I17" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9">
-        <v>2</v>
-      </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
-      <c r="BL17" s="26"/>
-      <c r="BM17" s="26"/>
-      <c r="BN17" s="26"/>
-      <c r="BO17" s="26"/>
-      <c r="BP17" s="26"/>
-      <c r="BQ17" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="18"/>
+      <c r="BB17" s="18"/>
+      <c r="BC17" s="18"/>
+      <c r="BD17" s="18"/>
+      <c r="BE17" s="18"/>
+      <c r="BF17" s="18"/>
+      <c r="BG17" s="18"/>
+      <c r="BH17" s="18"/>
+      <c r="BI17" s="18"/>
+      <c r="BJ17" s="18"/>
+      <c r="BK17" s="18"/>
+      <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="18"/>
     </row>
     <row r="18" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -2794,10 +2755,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9">
         <v>2</v>
@@ -2809,86 +2770,86 @@
         <v>2</v>
       </c>
       <c r="J18" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>2</v>
-      </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
-      <c r="BL18" s="26"/>
-      <c r="BM18" s="26"/>
-      <c r="BN18" s="26"/>
-      <c r="BO18" s="26"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
     </row>
     <row r="19" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2897,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -2911,170 +2872,170 @@
       <c r="M19" s="9">
         <v>0</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
-      <c r="BL19" s="26"/>
-      <c r="BM19" s="26"/>
-      <c r="BN19" s="26"/>
-      <c r="BO19" s="26"/>
-      <c r="BP19" s="26"/>
-      <c r="BQ19" s="26"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
+      <c r="BK19" s="18"/>
+      <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="18"/>
+      <c r="BQ19" s="18"/>
     </row>
     <row r="20" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G20" s="9">
         <v>3</v>
       </c>
       <c r="H20" s="9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="9">
-        <v>3</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
-      <c r="BP20" s="26"/>
-      <c r="BQ20" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
     </row>
     <row r="21" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>43864</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -3083,81 +3044,81 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="26"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
     </row>
     <row r="22" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G22" s="9">
         <v>3</v>
       </c>
       <c r="H22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -3174,75 +3135,75 @@
       <c r="M22" s="9">
         <v>0</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="26"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18"/>
+      <c r="BN22" s="18"/>
+      <c r="BO22" s="18"/>
+      <c r="BP22" s="18"/>
+      <c r="BQ22" s="18"/>
     </row>
     <row r="23" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G23" s="9">
         <v>2</v>
@@ -3251,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="9">
         <v>0</v>
@@ -3265,78 +3226,78 @@
       <c r="M23" s="9">
         <v>0</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="26"/>
-      <c r="BQ23" s="26"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
     </row>
     <row r="24" spans="1:69" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>4</v>
       </c>
-      <c r="D24" s="15">
-        <v>43864</v>
+      <c r="D24" s="14">
+        <v>43867</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="12"/>
@@ -3346,62 +3307,62 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="26"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="18"/>
+      <c r="BA24" s="18"/>
+      <c r="BB24" s="18"/>
+      <c r="BC24" s="18"/>
+      <c r="BD24" s="18"/>
+      <c r="BE24" s="18"/>
+      <c r="BF24" s="18"/>
+      <c r="BG24" s="18"/>
+      <c r="BH24" s="18"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="18"/>
+      <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
+      <c r="BM24" s="18"/>
+      <c r="BN24" s="18"/>
+      <c r="BO24" s="18"/>
+      <c r="BP24" s="18"/>
+      <c r="BQ24" s="18"/>
     </row>
     <row r="25" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -3410,10 +3371,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G25" s="9">
         <v>2</v>
@@ -3428,70 +3389,70 @@
         <v>2</v>
       </c>
       <c r="K25" s="9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="9">
-        <v>2</v>
-      </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="26"/>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="26"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
-      <c r="BL25" s="26"/>
-      <c r="BM25" s="26"/>
-      <c r="BN25" s="26"/>
-      <c r="BO25" s="26"/>
-      <c r="BP25" s="26"/>
-      <c r="BQ25" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="18"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BI25" s="18"/>
+      <c r="BJ25" s="18"/>
+      <c r="BK25" s="18"/>
+      <c r="BL25" s="18"/>
+      <c r="BM25" s="18"/>
+      <c r="BN25" s="18"/>
+      <c r="BO25" s="18"/>
+      <c r="BP25" s="18"/>
+      <c r="BQ25" s="18"/>
     </row>
     <row r="26" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -3500,7 +3461,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>28</v>
@@ -3526,62 +3487,62 @@
       <c r="M26" s="9">
         <v>2</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
-      <c r="BP26" s="26"/>
-      <c r="BQ26" s="26"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="18"/>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="18"/>
+      <c r="BQ26" s="18"/>
     </row>
     <row r="27" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -3590,10 +3551,10 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -3611,67 +3572,67 @@
         <v>1</v>
       </c>
       <c r="L27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="9">
-        <v>1</v>
-      </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
-      <c r="BP27" s="26"/>
-      <c r="BQ27" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="18"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18"/>
+      <c r="BC27" s="18"/>
+      <c r="BD27" s="18"/>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="18"/>
+      <c r="BI27" s="18"/>
+      <c r="BJ27" s="18"/>
+      <c r="BK27" s="18"/>
+      <c r="BL27" s="18"/>
+      <c r="BM27" s="18"/>
+      <c r="BN27" s="18"/>
+      <c r="BO27" s="18"/>
+      <c r="BP27" s="18"/>
+      <c r="BQ27" s="18"/>
     </row>
     <row r="28" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
@@ -3680,10 +3641,10 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
@@ -3701,1154 +3662,498 @@
         <v>3</v>
       </c>
       <c r="L28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28" s="9">
-        <v>3</v>
-      </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="26"/>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="26"/>
-      <c r="BQ28" s="26"/>
-    </row>
-    <row r="29" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="18"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="18"/>
+      <c r="BD28" s="18"/>
+      <c r="BE28" s="18"/>
+      <c r="BF28" s="18"/>
+      <c r="BG28" s="18"/>
+      <c r="BH28" s="18"/>
+      <c r="BI28" s="18"/>
+      <c r="BJ28" s="18"/>
+      <c r="BK28" s="18"/>
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18"/>
+      <c r="BN28" s="18"/>
+      <c r="BO28" s="18"/>
+      <c r="BP28" s="18"/>
+      <c r="BQ28" s="18"/>
+    </row>
+    <row r="29" spans="1:69" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <f>SUM(G3:G28)</f>
+        <v>41</v>
+      </c>
+      <c r="H29" s="5">
+        <f>SUM(H4:H28)</f>
+        <v>35.5</v>
+      </c>
+      <c r="I29" s="5">
+        <f>SUM(I3:I28)</f>
+        <v>21.5</v>
+      </c>
+      <c r="J29" s="5">
+        <f>SUM(J3:J28)</f>
+        <v>13.5</v>
+      </c>
+      <c r="K29" s="5">
+        <f>SUM(K3:K28)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L29" s="5">
+        <f>SUM(L3:L28)</f>
         <v>5</v>
       </c>
-      <c r="D29" s="15">
-        <v>43864</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="26"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="26"/>
-      <c r="BQ29" s="26"/>
-    </row>
-    <row r="30" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="9">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9">
-        <v>2</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2</v>
-      </c>
-      <c r="J30" s="9">
-        <v>2</v>
-      </c>
-      <c r="K30" s="9">
-        <v>2</v>
-      </c>
-      <c r="L30" s="9">
-        <v>2</v>
-      </c>
-      <c r="M30" s="9">
-        <v>2</v>
-      </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
-      <c r="AN30" s="26"/>
-      <c r="AO30" s="26"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="26"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="26"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="26"/>
-      <c r="BM30" s="26"/>
-      <c r="BN30" s="26"/>
-      <c r="BO30" s="26"/>
-      <c r="BP30" s="26"/>
-      <c r="BQ30" s="26"/>
-    </row>
-    <row r="31" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="9">
-        <v>2</v>
-      </c>
-      <c r="H31" s="9">
-        <v>2</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2</v>
-      </c>
-      <c r="K31" s="9">
-        <v>2</v>
-      </c>
-      <c r="L31" s="9">
-        <v>2</v>
-      </c>
-      <c r="M31" s="9">
-        <v>2</v>
-      </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="26"/>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="26"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
-      <c r="BQ31" s="26"/>
-    </row>
-    <row r="32" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1</v>
-      </c>
-      <c r="L32" s="9">
-        <v>1</v>
-      </c>
-      <c r="M32" s="9">
-        <v>1</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="26"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="26"/>
-      <c r="AN32" s="26"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
-      <c r="BM32" s="26"/>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="26"/>
-      <c r="BP32" s="26"/>
-      <c r="BQ32" s="26"/>
-    </row>
-    <row r="33" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="9">
-        <v>3</v>
-      </c>
-      <c r="H33" s="9">
-        <v>3</v>
-      </c>
-      <c r="I33" s="9">
-        <v>3</v>
-      </c>
-      <c r="J33" s="9">
-        <v>3</v>
-      </c>
-      <c r="K33" s="9">
-        <v>3</v>
-      </c>
-      <c r="L33" s="9">
-        <v>3</v>
-      </c>
-      <c r="M33" s="9">
-        <v>3</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
-      <c r="BM33" s="26"/>
-      <c r="BN33" s="26"/>
-      <c r="BO33" s="26"/>
-      <c r="BP33" s="26"/>
-      <c r="BQ33" s="26"/>
-    </row>
-    <row r="34" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="M29" s="5">
+        <f>SUM(M3:M28)</f>
         <v>5</v>
       </c>
-      <c r="D34" s="15">
-        <v>43864</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26"/>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
-      <c r="BQ34" s="26"/>
-    </row>
-    <row r="35" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="9">
-        <v>2</v>
-      </c>
-      <c r="H35" s="9">
-        <v>2</v>
-      </c>
-      <c r="I35" s="9">
-        <v>2</v>
-      </c>
-      <c r="J35" s="9">
-        <v>2</v>
-      </c>
-      <c r="K35" s="9">
-        <v>2</v>
-      </c>
-      <c r="L35" s="9">
-        <v>2</v>
-      </c>
-      <c r="M35" s="9">
-        <v>2</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="26"/>
-      <c r="AN35" s="26"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="26"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="26"/>
-      <c r="BM35" s="26"/>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
-      <c r="BP35" s="26"/>
-      <c r="BQ35" s="26"/>
-    </row>
-    <row r="36" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="9">
-        <v>2</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2</v>
-      </c>
-      <c r="I36" s="9">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9">
-        <v>2</v>
-      </c>
-      <c r="K36" s="9">
-        <v>2</v>
-      </c>
-      <c r="L36" s="9">
-        <v>2</v>
-      </c>
-      <c r="M36" s="9">
-        <v>2</v>
-      </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="26"/>
-      <c r="AM36" s="26"/>
-      <c r="AN36" s="26"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="26"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
-      <c r="BQ36" s="26"/>
-    </row>
-    <row r="37" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="9">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="9">
-        <v>1</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1</v>
-      </c>
-      <c r="M37" s="9">
-        <v>1</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="26"/>
-      <c r="AM37" s="26"/>
-      <c r="AN37" s="26"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="26"/>
-      <c r="AR37" s="26"/>
-      <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="26"/>
-      <c r="BE37" s="26"/>
-      <c r="BF37" s="26"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="26"/>
-      <c r="BL37" s="26"/>
-      <c r="BM37" s="26"/>
-      <c r="BN37" s="26"/>
-      <c r="BO37" s="26"/>
-      <c r="BP37" s="26"/>
-      <c r="BQ37" s="26"/>
-    </row>
-    <row r="38" spans="1:69" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="9">
-        <v>3</v>
-      </c>
-      <c r="H38" s="9">
-        <v>3</v>
-      </c>
-      <c r="I38" s="9">
-        <v>3</v>
-      </c>
-      <c r="J38" s="9">
-        <v>3</v>
-      </c>
-      <c r="K38" s="9">
-        <v>3</v>
-      </c>
-      <c r="L38" s="9">
-        <v>3</v>
-      </c>
-      <c r="M38" s="9">
-        <v>3</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="26"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="26"/>
-      <c r="AN38" s="26"/>
-      <c r="AO38" s="26"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="26"/>
-      <c r="AZ38" s="26"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="26"/>
-      <c r="BD38" s="26"/>
-      <c r="BE38" s="26"/>
-      <c r="BF38" s="26"/>
-      <c r="BG38" s="26"/>
-      <c r="BH38" s="26"/>
-      <c r="BI38" s="26"/>
-      <c r="BJ38" s="26"/>
-      <c r="BK38" s="26"/>
-      <c r="BL38" s="26"/>
-      <c r="BM38" s="26"/>
-      <c r="BN38" s="26"/>
-      <c r="BO38" s="26"/>
-      <c r="BP38" s="26"/>
-      <c r="BQ38" s="26"/>
-    </row>
-    <row r="39" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="16">
-        <v>5</v>
-      </c>
-      <c r="D39" s="15">
-        <v>43864</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="26"/>
-      <c r="AQ39" s="26"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="AU39" s="26"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="26"/>
-      <c r="AZ39" s="26"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="26"/>
-      <c r="BE39" s="26"/>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="26"/>
-      <c r="BH39" s="26"/>
-      <c r="BI39" s="26"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
-      <c r="BL39" s="26"/>
-      <c r="BM39" s="26"/>
-      <c r="BN39" s="26"/>
-      <c r="BO39" s="26"/>
-      <c r="BP39" s="26"/>
-      <c r="BQ39" s="26"/>
-    </row>
-    <row r="40" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="9">
-        <v>2</v>
-      </c>
-      <c r="H40" s="9">
-        <v>2</v>
-      </c>
-      <c r="I40" s="9">
-        <v>2</v>
-      </c>
-      <c r="J40" s="9">
-        <v>2</v>
-      </c>
-      <c r="K40" s="9">
-        <v>2</v>
-      </c>
-      <c r="L40" s="9">
-        <v>2</v>
-      </c>
-      <c r="M40" s="9">
-        <v>2</v>
-      </c>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="26"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="26"/>
-      <c r="BJ40" s="26"/>
-      <c r="BK40" s="26"/>
-      <c r="BL40" s="26"/>
-      <c r="BM40" s="26"/>
-      <c r="BN40" s="26"/>
-      <c r="BO40" s="26"/>
-      <c r="BP40" s="26"/>
-      <c r="BQ40" s="26"/>
-    </row>
-    <row r="41" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9">
-        <v>1</v>
-      </c>
-      <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="9">
-        <v>1</v>
-      </c>
-      <c r="M41" s="9">
-        <v>1</v>
-      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="18"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="18"/>
+      <c r="BC29" s="18"/>
+      <c r="BD29" s="18"/>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BI29" s="18"/>
+      <c r="BJ29" s="18"/>
+      <c r="BK29" s="18"/>
+      <c r="BL29" s="18"/>
+      <c r="BM29" s="18"/>
+      <c r="BN29" s="18"/>
+      <c r="BO29" s="18"/>
+      <c r="BP29" s="18"/>
+      <c r="BQ29" s="18"/>
+    </row>
+    <row r="30" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -4865,72 +4170,20 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="26"/>
-      <c r="AZ41" s="26"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="26"/>
-      <c r="BC41" s="26"/>
-      <c r="BD41" s="26"/>
-      <c r="BE41" s="26"/>
-      <c r="BF41" s="26"/>
-      <c r="BG41" s="26"/>
-      <c r="BH41" s="26"/>
-      <c r="BI41" s="26"/>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="26"/>
-      <c r="BL41" s="26"/>
-      <c r="BM41" s="26"/>
-      <c r="BN41" s="26"/>
-      <c r="BO41" s="26"/>
-      <c r="BP41" s="26"/>
-      <c r="BQ41" s="26"/>
-    </row>
-    <row r="42" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="9">
-        <v>3</v>
-      </c>
-      <c r="H42" s="9">
-        <v>3</v>
-      </c>
-      <c r="I42" s="9">
-        <v>3</v>
-      </c>
-      <c r="J42" s="9">
-        <v>3</v>
-      </c>
-      <c r="K42" s="9">
-        <v>3</v>
-      </c>
-      <c r="L42" s="9">
-        <v>3</v>
-      </c>
-      <c r="M42" s="9">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -4947,75 +4200,20 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
-      <c r="AQ42" s="26"/>
-      <c r="AR42" s="26"/>
-      <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="26"/>
-      <c r="AV42" s="26"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="26"/>
-      <c r="AY42" s="26"/>
-      <c r="AZ42" s="26"/>
-      <c r="BA42" s="26"/>
-      <c r="BB42" s="26"/>
-      <c r="BC42" s="26"/>
-      <c r="BD42" s="26"/>
-      <c r="BE42" s="26"/>
-      <c r="BF42" s="26"/>
-      <c r="BG42" s="26"/>
-      <c r="BH42" s="26"/>
-      <c r="BI42" s="26"/>
-      <c r="BJ42" s="26"/>
-      <c r="BK42" s="26"/>
-      <c r="BL42" s="26"/>
-      <c r="BM42" s="26"/>
-      <c r="BN42" s="26"/>
-      <c r="BO42" s="26"/>
-      <c r="BP42" s="26"/>
-      <c r="BQ42" s="26"/>
-    </row>
-    <row r="43" spans="1:69" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <f>SUM(G3:G42)</f>
-        <v>63</v>
-      </c>
-      <c r="H43" s="5">
-        <f>SUM(H4:H42)</f>
-        <v>59</v>
-      </c>
-      <c r="I43" s="5">
-        <f>SUM(I3:I42)</f>
-        <v>54</v>
-      </c>
-      <c r="J43" s="5">
-        <f>SUM(J3:J42)</f>
-        <v>54</v>
-      </c>
-      <c r="K43" s="5">
-        <f>SUM(K3:K42)</f>
-        <v>54</v>
-      </c>
-      <c r="L43" s="5">
-        <f>SUM(L3:L42)</f>
-        <v>54</v>
-      </c>
-      <c r="M43" s="5">
-        <f>SUM(M3:M42)</f>
-        <v>54</v>
-      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -5032,40 +4230,8 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
-      <c r="BD43" s="26"/>
-      <c r="BE43" s="26"/>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
-      <c r="BL43" s="26"/>
-      <c r="BM43" s="26"/>
-      <c r="BN43" s="26"/>
-      <c r="BO43" s="26"/>
-      <c r="BP43" s="26"/>
-      <c r="BQ43" s="26"/>
-    </row>
-    <row r="44" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5095,31 +4261,29 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -5127,7 +4291,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5157,7 +4321,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5187,7 +4351,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7527,433 +6691,13 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-    </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-    </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
-    </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-    </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-    </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-    </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-    </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-    </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
-    </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-    </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-    </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-    </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-    </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AB139" s="4"/>
-      <c r="AC139" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B45:W45"/>
+    <mergeCell ref="B31:W31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45:W45" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B31:W31" r:id="rId1" display="CLICK HERE TO CREATE IN SMARTSHEET" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
@@ -7993,29 +6737,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
